--- a/GUA work/Pt(100)/IR chamber/GUA 0.025 L.xlsx
+++ b/GUA work/Pt(100)/IR chamber/GUA 0.025 L.xlsx
@@ -1,29 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michelle\Documents\guaiacol on Pt(100)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manolis\Desktop\PycharmProjects\IRAS\IRAS\GUA work\Pt(100)\IR chamber\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8196" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19610" windowHeight="6912" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="combined" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="7" r:id="rId2"/>
-    <sheet name="plot" sheetId="6" r:id="rId3"/>
-    <sheet name="GUA_1.63E-9_30sec_0.025 L_more" sheetId="2" r:id="rId4"/>
-    <sheet name="GUA_1.56E-9_30 sec_0.025L_1018" sheetId="3" r:id="rId5"/>
-    <sheet name="GUA_1.38E-9_30sec_0.025 L_more" sheetId="4" r:id="rId6"/>
-    <sheet name="0.025 L" sheetId="5" r:id="rId7"/>
+    <sheet name="plot" sheetId="6" r:id="rId2"/>
+    <sheet name="GUA_1.63E-9_30sec_0.025 L_more" sheetId="2" r:id="rId3"/>
+    <sheet name="GUA_1.56E-9_30 sec_0.025L_1018" sheetId="3" r:id="rId4"/>
+    <sheet name="GUA_1.38E-9_30sec_0.025 L_more" sheetId="4" r:id="rId5"/>
+    <sheet name="0.025 L" sheetId="5" r:id="rId6"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId8"/>
+    <externalReference r:id="rId7"/>
   </externalReferences>
-  <calcPr calcId="152511" iterateDelta="1E-4"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -110,7 +109,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -183,8 +182,36 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{62FE71CA-BB69-4C3C-A1AA-8084CCE8DAA3}">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -197,7 +224,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -210,84 +237,17 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr algn="l">
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1"/>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>GUA/Pt(100)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.82663569612853516"/>
-          <c:y val="1.66333998669328E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l">
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="5.8286464191976001E-2"/>
-          <c:y val="1.3506320691949443E-2"/>
-          <c:w val="0.90399325084364457"/>
-          <c:h val="0.80400275564356849"/>
+          <c:x val="9.6806649168853898E-2"/>
+          <c:y val="6.1586395450568682E-2"/>
+          <c:w val="0.8596338368061287"/>
+          <c:h val="0.80400283828380459"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -303,4229 +263,6 @@
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
                   <c:v>H2/10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>combined!$A$2:$A$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
-                <c:pt idx="0">
-                  <c:v>113.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>117.2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>124.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>128.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>131.80000000000001</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>135.19999999999999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138.6</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>141.9</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>145.1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>148.30000000000001</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>151.5</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>154.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>157.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>160.69999999999999</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>163.6</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>166.5</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>169.4</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>172.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>175.1</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>177.8</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>180.6</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>183.4</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>186.1</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>188.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>191.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>194.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>196.9</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>199.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>202.3</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>205</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>207.6</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>210</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>212.6</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>215.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>218</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>220.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>223.2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>226.2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>228.5</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>231.2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>233.8</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>236.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>239.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>241.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>244.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>247.1</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>249.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>252.3</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>257.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>259.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>262.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>265.2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>267.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>270.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>273.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>275.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>278.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>283.3</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>288.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>291.3</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>293.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>296.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>299.2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>301.8</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>304.5</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>307.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>309.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>312.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>317.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>320.3</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>322.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>325.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>328.2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>330.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>336.1</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>338.7</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>341.4</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>346.7</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>349.3</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>351.9</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>354.6</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>356.9</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>359.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>362.5</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>365.1</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>367.8</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>370.4</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>375.3</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>380.6</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>383.3</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>385.9</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>388.6</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>391.2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>393.8</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>396.5</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>399.1</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>401.7</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>404.4</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>409.7</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>412.3</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>414.6</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>417.2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>419.9</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>422.5</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>425.1</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>427.7</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>430.4</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>432.7</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>435.7</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>438.3</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>440.6</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>443.3</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>445.9</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>448.6</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>451.2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>453.8</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>456.5</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>459.1</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>461.8</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>464.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>467.1</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>469.7</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>472.3</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>474.9</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>477.6</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>480.2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>482.9</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>485.5</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>487.8</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>490.4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>493.1</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>495.7</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>498.4</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>503.7</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>506.3</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>508.9</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>511.2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>513.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>516.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>519.1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>521.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>524.4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>527.1</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>529.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>532.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>537.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>539.9</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>542.6</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>545.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>547.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>550.5</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>553.1</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>555.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>560.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>563.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>568.6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>571.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>573.9</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>576.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>578.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>581.5</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>584.1</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>586.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>589.4</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>594.6</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>596.9</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>599.6</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>602.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>604.9</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>607.5</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>610.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>612.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>615.4</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>618.1</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>620.4</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>625.6</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>628.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>630.9</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>633.5</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>636.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>638.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>641.5</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>644.1</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>646.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>649.4</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>654.6</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>659.6</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>662.2</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>664.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>667.5</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>670.1</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>672.8</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>675.4</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>680.7</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>683.4</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>688.3</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>690.9</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>693.6</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>696.2</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>698.9</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>701.5</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>704.1</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>706.8</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>709.4</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>711.7</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>714.7</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>717.3</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>719.9</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>722.6</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>724.9</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>727.5</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>730.1</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>732.8</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>735.4</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>740.7</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>745.6</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>748.2</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>750.9</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>753.5</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>756.2</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>761.4</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>764.1</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>766.4</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>771.6</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>774.3</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>776.9</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>779.6</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>782.2</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>784.5</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>787.5</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>789.8</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>792.4</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>797.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>combined!$D$2:$D$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="258"/>
-                <c:pt idx="0">
-                  <c:v>1321.4199979568095</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1320.9173720663573</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1312.5133461759051</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1314.7933814930966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1318.6548780179312</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1319.1104357504094</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1313.2813546905311</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1313.0085736306528</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1319.8043537784179</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1315.7794951338267</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1308.8370364892353</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1308.5509778446437</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1316.1058192000526</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1310.7186829707482</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1303.9716467414437</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1301.7615717197828</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1308.8690966981219</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1310.8901216764611</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1300.1867078624437</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1302.1092328407826</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1302.9462802344087</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1305.7628664203914</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1304.312052606374</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1300</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1307.7392473936261</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1314.0614947872521</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1305.6647809732347</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1309.2703895745042</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1314.8124369681302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1324.0371843617563</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1334.7028317553822</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1336.7584403566518</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1350.3624713732083</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1365.3411799744779</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1372.4034273681038</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1377.3175747617302</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1390.5588833629995</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1404.763291964269</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1411.210055734965</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1403.9457479591649</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1399.8273953527907</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1402.10450395406</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1392.1304513476862</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1378.3290599489558</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1375.4695073425819</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1373.5581159438516</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1366.8157633374774</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1354.7023719387471</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1359.2734805400164</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1361.9050279336425</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1360.7942365349122</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1352.4709287591122</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1363.1713761527383</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1362.0789847540077</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1356.6105933552772</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1358.6710407489034</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1370.4685493501729</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1379.3450579514424</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1370.0355053450683</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1374.740713946338</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1391.625906170538</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1402.4621535641641</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1396.4192621654336</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1408.86900955906</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1422.045718160329</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1424.0221655539549</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1427.311174155225</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1439.0089827564939</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1456.4224301501199</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1470.03853875139</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1479.9294473526591</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1508.8799947462851</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1550.6167033475549</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1592.5388119488239</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1614.6479593424501</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1663.2941679437199</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1720.418515337346</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1745.5242239386159</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1738.7721713322421</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1739.7304799335111</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1742.6765885347809</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1720.2187971360499</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1673.785144529676</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1637.6819531309461</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1606.7013005245719</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1571.563409125841</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1535.5804177271109</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1522.236365120737</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1532.9939573449369</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1535.7021659462059</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1536.7586297169021</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1559.6582383181722</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1592.7341857117981</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1632.956494313067</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1657.424302914337</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1684.7064951385369</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1720.264342532163</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1736.843251133432</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1729.652698527058</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1730.5264071283279</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1749.740554521954</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1751.847263123223</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1734.939271724493</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1739.9556191181191</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1747.7434277193879</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1737.589536320658</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1705.605483714284</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1693.3781923155539</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1679.92623970918</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1650.9910483104491</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1605.0625405346491</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1575.123849135919</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1557.890896529545</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1535.699605130814</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1500.629413732084</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1496.816922333353</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1492.5882697269799</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1476.70016195118</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1465.1637257218749</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1458.638734323144</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1467.9957265473449</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1456.07317394097</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1447.48668254224</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1454.0205299358661</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1455.5697385371359</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1446.442547138405</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1444.467194532031</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1449.294803133301</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1451.772750526927</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1449.665259128197</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1440.250306521822</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1450.825315123092</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1455.8177237243619</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1459.4165323256311</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1454.6397797192569</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1464.4992883205271</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1473.0483357141529</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1473.0221443154219</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1469.741936539622</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1484.176945140892</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1488.4886925345181</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1478.607601135787</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1483.7645485294129</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1501.0758571306831</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1497.6957045243089</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1489.1400131255791</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1491.292521726848</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1500.6755139510481</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1501.2391225523179</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1497.676869945944</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1493.3999785472131</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1503.5306259408389</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1499.118734542109</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1491.2464819357351</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1489.8775905370039</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1498.301799138274</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1486.4649465319001</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1481.1572387561</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1486.0481473573691</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1485.5794947509951</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1467.4782033522649</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1460.647611953535</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1463.3734593471611</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1453.6747679484299</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1440.2034765497001</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1434.4092687739001</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1437.8045161675259</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1427.5961247687951</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1413.4708721624211</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1415.1460807636911</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1416.5416893649599</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1407.4317367585859</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1408.548228982786</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1412.364937584056</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1413.839784977682</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1404.865293578951</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1406.802202180221</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1416.6798495738469</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1424.160958175117</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1412.905266776386</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1414.0798590005861</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1423.1843063942119</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1419.8198149954819</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1412.3268623891081</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1425.3464709903769</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1428.2518183840029</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1422.3265269852729</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1420.909735586542</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1430.9338829801679</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1431.6642752043681</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1422.9345838056379</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1424.1389924069081</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1433.8263398005329</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1437.176648401803</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1426.726357003073</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1423.861604396699</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1438.6564129979679</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1434.2457603915941</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1425.0614689928641</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1427.770977594133</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1440.7735249877589</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1442.697533589029</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1430.656942190298</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1433.9277732068549</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1444.1589818081241</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1444.203290409394</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1437.826999010663</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1441.7650464042899</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1448.568855005559</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1447.4595023991851</c:v>
-                </c:pt>
-                <c:pt idx="210">
-                  <c:v>1437.383311000455</c:v>
-                </c:pt>
-                <c:pt idx="211">
-                  <c:v>1443.2425196017241</c:v>
-                </c:pt>
-                <c:pt idx="212">
-                  <c:v>1439.31766699535</c:v>
-                </c:pt>
-                <c:pt idx="213">
-                  <c:v>1439.258614388976</c:v>
-                </c:pt>
-                <c:pt idx="214">
-                  <c:v>1429.8120229902461</c:v>
-                </c:pt>
-                <c:pt idx="215">
-                  <c:v>1430.349415214446</c:v>
-                </c:pt>
-                <c:pt idx="216">
-                  <c:v>1427.171923815715</c:v>
-                </c:pt>
-                <c:pt idx="217">
-                  <c:v>1412.8782712093409</c:v>
-                </c:pt>
-                <c:pt idx="218">
-                  <c:v>1406.3963798106111</c:v>
-                </c:pt>
-                <c:pt idx="219">
-                  <c:v>1405.1756272042371</c:v>
-                </c:pt>
-                <c:pt idx="220">
-                  <c:v>1401.514635805506</c:v>
-                </c:pt>
-                <c:pt idx="221">
-                  <c:v>1381.018044406776</c:v>
-                </c:pt>
-                <c:pt idx="222">
-                  <c:v>1372.022191800402</c:v>
-                </c:pt>
-                <c:pt idx="223">
-                  <c:v>1376.5283004016715</c:v>
-                </c:pt>
-                <c:pt idx="224">
-                  <c:v>1365.6063926258714</c:v>
-                </c:pt>
-                <c:pt idx="225">
-                  <c:v>1348.4447563965673</c:v>
-                </c:pt>
-                <c:pt idx="226">
-                  <c:v>1337.5439649978366</c:v>
-                </c:pt>
-                <c:pt idx="227">
-                  <c:v>1343.6082735991063</c:v>
-                </c:pt>
-                <c:pt idx="228">
-                  <c:v>1338.4845209927321</c:v>
-                </c:pt>
-                <c:pt idx="229">
-                  <c:v>1324.9128132169321</c:v>
-                </c:pt>
-                <c:pt idx="230">
-                  <c:v>1324.2135218182018</c:v>
-                </c:pt>
-                <c:pt idx="231">
-                  <c:v>1327.0343304194712</c:v>
-                </c:pt>
-                <c:pt idx="232">
-                  <c:v>1322.6511778130973</c:v>
-                </c:pt>
-                <c:pt idx="233">
-                  <c:v>1312.6379864143669</c:v>
-                </c:pt>
-                <c:pt idx="234">
-                  <c:v>1314.7851950156364</c:v>
-                </c:pt>
-                <c:pt idx="235">
-                  <c:v>1322.2289424092623</c:v>
-                </c:pt>
-                <c:pt idx="236">
-                  <c:v>1317.7527346334623</c:v>
-                </c:pt>
-                <c:pt idx="237">
-                  <c:v>1313.9171432347318</c:v>
-                </c:pt>
-                <c:pt idx="238">
-                  <c:v>1318.9847518360016</c:v>
-                </c:pt>
-                <c:pt idx="239">
-                  <c:v>1320.1597992296277</c:v>
-                </c:pt>
-                <c:pt idx="240">
-                  <c:v>1316.7248078308971</c:v>
-                </c:pt>
-                <c:pt idx="241">
-                  <c:v>1315.7382552245231</c:v>
-                </c:pt>
-                <c:pt idx="242">
-                  <c:v>1322.6430638257925</c:v>
-                </c:pt>
-                <c:pt idx="243">
-                  <c:v>1318.6613724270621</c:v>
-                </c:pt>
-                <c:pt idx="244">
-                  <c:v>1311.8852198206882</c:v>
-                </c:pt>
-                <c:pt idx="245">
-                  <c:v>1314.6329120448881</c:v>
-                </c:pt>
-                <c:pt idx="246">
-                  <c:v>1320.1869206461579</c:v>
-                </c:pt>
-                <c:pt idx="247">
-                  <c:v>1323.2755292474274</c:v>
-                </c:pt>
-                <c:pt idx="248">
-                  <c:v>1317.9018766410534</c:v>
-                </c:pt>
-                <c:pt idx="249">
-                  <c:v>1314.2432852423228</c:v>
-                </c:pt>
-                <c:pt idx="250">
-                  <c:v>1320.4783326359488</c:v>
-                </c:pt>
-                <c:pt idx="251">
-                  <c:v>1317.6971412372186</c:v>
-                </c:pt>
-                <c:pt idx="252">
-                  <c:v>1315.1667334614185</c:v>
-                </c:pt>
-                <c:pt idx="253">
-                  <c:v>1318.7081972321139</c:v>
-                </c:pt>
-                <c:pt idx="254">
-                  <c:v>1320.2750894563139</c:v>
-                </c:pt>
-                <c:pt idx="255">
-                  <c:v>1317.4577980575834</c:v>
-                </c:pt>
-                <c:pt idx="256">
-                  <c:v>1315.4071066588531</c:v>
-                </c:pt>
-                <c:pt idx="257">
-                  <c:v>1321.3238540524792</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-0390-4D37-B9F5-AD3E7B681EBB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>combined!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CO/10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>combined!$A$50:$A$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
-                <c:pt idx="0">
-                  <c:v>252.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>257.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>259.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>265.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>267.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>273.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>275.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>283.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>288.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>291.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>293.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>296.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>299.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>301.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>304.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>307.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>309.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>312.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>317.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>320.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>322.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>325.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>328.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>330.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>336.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>338.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>341.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>346.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>349.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>351.9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>354.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>356.9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>359.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>362.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>365.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>367.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>370.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>375.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>380.6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>383.3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>385.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>388.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>391.2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>393.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>396.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>399.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>401.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>404.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>409.7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>412.3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>414.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>417.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>419.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>422.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>425.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>427.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>430.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>432.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>435.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>438.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>440.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>443.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>445.9</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>448.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>451.2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>453.8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>456.5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>459.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>461.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>464.4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>467.1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>469.7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>472.3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>474.9</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>477.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>480.2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>482.9</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>485.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>487.8</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>490.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>493.1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>495.7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>498.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>503.7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>506.3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>508.9</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>511.2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>513.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>516.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>519.1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>521.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>524.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>527.1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>529.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>532.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>537.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>539.9</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>542.6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>545.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>547.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>550.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>553.1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>555.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>560.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>563.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>568.6</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>571.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>573.9</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>576.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>578.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>581.5</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>584.1</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>586.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>589.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>594.6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>596.9</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>599.6</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>602.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>604.9</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>607.5</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>610.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>612.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>615.4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>618.1</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>620.4</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>625.6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>628.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>630.9</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>633.5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>636.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>638.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>641.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>644.1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>646.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>649.4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>654.6</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>659.6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>662.2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>664.8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>667.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>670.1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>672.8</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>675.4</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>680.7</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>683.4</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>688.3</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>690.9</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>693.6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>696.2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>698.9</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>701.5</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>704.1</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>706.8</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>709.4</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>711.7</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>714.7</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>717.3</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>719.9</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>722.6</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>724.9</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>727.5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>730.1</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>732.8</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>735.4</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>740.7</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>745.6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>748.2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>750.9</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>753.5</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>756.2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>761.4</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>764.1</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>766.4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>771.6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>774.3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>776.9</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>779.6</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>782.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>784.5</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>787.5</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>789.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>792.4</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>797.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>combined!$G$50:$G$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
-                <c:pt idx="0">
-                  <c:v>970.25668135166529</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>973.29206790697799</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>979.39423273801992</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>985.41783239624908</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>976.35371895156197</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>974.23058378260373</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>980.94274861364545</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>981.90213516895813</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>970</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>976.60146483104177</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>985.87135138635415</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>982.68471621739604</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>981.99761587562557</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>987.50140243093813</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>994.22886726197987</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>991.21825381729275</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>989.34351864833422</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>993.29980520364677</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1002.3121700346888</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>988.62573486573046</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>983.70462142104316</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>990.57858625208496</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>993.71825108312669</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>996.04423763843954</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>994.97320246948118</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>993.3417673005232</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1000.3496538558358</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>999.38941868687755</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>997.27420524219019</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>994.20097007323193</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>998.81315662854468</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1001.9986214595865</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>990.64548629062824</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>994.55435112167004</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1005.2405376769826</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1010.7351025080242</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>995.00088906333713</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>996.2567538943789</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1004.4133187254207</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1004.7014052807333</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1005.6751049389628</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1005.5936697700045</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1013.4366214981295</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1016.0246863291712</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>996.35487288448405</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>997.79033771552577</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1001.7362025465677</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1002.697102204797</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>999.50698876010938</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1007.0304535911513</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1020.923740146464</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1032.7241049775059</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1041.6615915328182</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1051.4433563638602</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1091.281721194902</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1120.575907750215</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1134.2077725812569</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1174.9810374122981</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1234.7777239676111</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1298.221888798653</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1333.6817753539649</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1389.383440185007</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1442.3409398432359</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1474.8292046742781</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1508.186291229591</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1545.664656060633</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1574.159920891675</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1597.140385722716</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1625.9276722780289</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1656.4829719362581</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1684.2572236643841</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1680.110288495425</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1694.4801881536541</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1723.8367747089669</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1737.7743395400089</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1737.9682260953221</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1748.269590926363</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1784.225855757405</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1790.7192423127181</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1788.136407143759</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1785.6709936990719</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1801.711358530114</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1812.2447450854261</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1804.9570099164689</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1815.40347474751</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1830.2364395785521</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1827.429626133865</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>1798.3931909649059</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1785.7372775202189</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1770.023142351261</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1732.5493420094899</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1694.467406840532</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>1649.7602933958451</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>1617.227658226886</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>1556.229244782199</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>1495.7096096132409</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>1431.3780961685529</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>1391.4888609995951</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>1332.9370258306371</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>1274.090125488867</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>1240.072390319908</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1208.6569768752211</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>1162.416141706263</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>1131.680828261575</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>1122.4890930926169</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1103.9272796479299</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1081.8678444789721</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>1070.0765093100131</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>1073.8850958653261</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>1065.8769955235555</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>1049.0942603545971</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>1042.3429469099099</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>1050.6829117409516</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>1041.4770765719934</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>1028.5396631273061</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>1027.5552279583478</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>1031.7647927893895</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>1032.3753924476187</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1020.8174790029315</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>1027.4621438339732</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>1019.9301303892858</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>1020.5071952203277</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>1023.5601600513696</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>1032.1626466066821</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>1035.9524462649113</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>1021.8150110959534</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>1027.9695976512658</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>1036.5604624823077</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>1040.7724273133495</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>1034.971313868662</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>1039.0916786997041</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>1038.1148435307455</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>1036.685143188975</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>1032.5321297442874</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>1041.7788945753296</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>1040.617681130642</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>1036.3828459616836</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>1034.0294325169964</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>1047.6651973480384</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>1038.4504621790802</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>1034.6973487343928</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>1033.4179483926221</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>1047.1021132236638</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>1053.2245780547057</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>1041.3137646100183</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>1047.1637294410598</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>1044.7221942721021</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>1044.5454808274146</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>1039.4242456584566</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>1042.2635322137689</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>1052.1878970448108</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>1047.6257618758527</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>1040.0160484311652</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>1041.7012132622071</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>1057.2193780932487</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>1065.2211994757488</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>1059.2530643067907</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>1067.2388291378325</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>1069.4741939688745</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>1063.5443805241869</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>1074.1603453552291</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>1081.1071319105411</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>1082.104496741583</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>1076.976861572625</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>1074.604348127938</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>1083.1394346832501</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>1084.706099514292</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>1066.8985991725212</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>1074.4144640035629</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>1086.755150558876</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>1086.667315389918</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>1078.14950194523</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>1084.305166776272</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>1085.8781316073141</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>1083.1580181626271</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>1081.642382993668</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>1073.668782651898</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>1089.6770343800231</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>1089.273299211065</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>1083.961064042106</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>1081.5096505974191</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>1098.5706502556479</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>1098.48541508669</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>1086.4890799177319</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>1091.594166473044</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>1096.7919313040861</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>1100.190196135128</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>1096.7936826904411</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>1106.96308234867</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>1117.613347179712</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>1109.426412010753</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>1118.0607985660661</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>1123.7999633971081</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>1132.0012499524209</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>1126.4151147834621</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>1124.7671796145039</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>1138.6603661698171</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>1148.5304658280461</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>1136.730230659088</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>1148.7025954901301</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>1162.1971820454419</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>1156.6989468764841</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>1151.6518334317971</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>1165.5918982628391</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>1168.3524979210679</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>1162.1726496491931</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>1164.432649307422</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>1186.916414138464</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>1189.011578969506</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>1182.4119655248189</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-0390-4D37-B9F5-AD3E7B681EBB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>combined!$I$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Benzene (x10)</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>combined!$A$50:$A$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
-                <c:pt idx="0">
-                  <c:v>252.3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>255</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>257.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>259.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>262.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>265.2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>267.8</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>270.5</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>273.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>275.7</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>278.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>281</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>283.3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>286</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>288.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>291.3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>293.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>296.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>299.2</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>301.8</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>304.5</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>307.10000000000002</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>309.7</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>312.39999999999998</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>315</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>317.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>320.3</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>322.89999999999998</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>325.60000000000002</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>328.2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>330.9</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>333.5</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>336.1</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>338.7</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>341.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>344</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>346.7</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>349.3</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>351.9</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>354.6</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>356.9</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>359.5</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>362.5</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>365.1</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>367.8</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>370.4</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>373</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>375.3</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>378</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>380.6</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>383.3</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>385.9</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>388.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>391.2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>393.8</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>396.5</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>399.1</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>401.7</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>404.4</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>407</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>409.7</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>412.3</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>414.6</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>417.2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>419.9</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>422.5</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>425.1</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>427.7</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>430.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>432.7</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>435.7</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>438.3</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>440.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>443.3</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>445.9</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>448.6</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>451.2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>453.8</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>456.5</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>459.1</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>461.8</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>464.4</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>467.1</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>469.7</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>472.3</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>474.9</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>477.6</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>480.2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>482.9</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>485.5</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>487.8</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>490.4</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>493.1</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>495.7</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>498.4</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>501</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>503.7</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>506.3</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>508.9</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>511.2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>513.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>516.5</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>519.1</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>521.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>524.4</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>527.1</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>529.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>532.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>535</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>537.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>539.9</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>542.6</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>545.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>547.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>550.5</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>553.1</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>555.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>558</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>560.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>563.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>566</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>568.6</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>571.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>573.9</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>576.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>578.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>581.5</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>584.1</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>586.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>589.4</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>592</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>594.6</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>596.9</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>599.6</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>602.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>604.9</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>607.5</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>610.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>612.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>615.4</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>618.1</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>620.4</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>623</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>625.6</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>628.29999999999995</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>630.9</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>633.5</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>636.20000000000005</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>638.79999999999995</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>641.5</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>644.1</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>646.70000000000005</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>649.4</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>652</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>654.6</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>657</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>659.6</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>662.2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>664.8</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>667.5</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>670.1</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>672.8</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>675.4</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>678</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>680.7</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>683.4</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>686</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>688.3</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>690.9</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>693.6</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>696.2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>698.9</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>701.5</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>704.1</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>706.8</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>709.4</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>711.7</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>714.7</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>717.3</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>719.9</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>722.6</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>724.9</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>727.5</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>730.1</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>732.8</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>735.4</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>738</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>740.7</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>743</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>745.6</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>748.2</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>750.9</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>753.5</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>756.2</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>758.8</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>761.4</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>764.1</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>766.4</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>769</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>771.6</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>774.3</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>776.9</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>779.6</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>782.2</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>784.5</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>787.5</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>789.8</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>792.4</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>795</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>797.7</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>combined!$J$50:$J$259</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="210"/>
-                <c:pt idx="0">
-                  <c:v>368.5533401521115</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>370.97043272020881</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>368.47059593393209</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>364.86997108453352</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>365.9370636526308</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>363.46722686635411</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>372.42739008007737</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>356.44448264817458</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>358.96464586189802</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>362.48480907562129</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>355.3319016437186</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>364.71206485744187</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>358.25144000804323</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>359.59853257614049</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>360.89869578986378</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>358.19578835796108</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>363.48595157168438</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>357.46304413978169</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>355.15320735350502</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>358.93337056722828</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>353.00046313532562</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>367.70062634904889</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>352.31078956277219</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>351.24788213086947</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>352.4480453445928</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>353.83820855831613</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>358.85530112641339</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>353.97546434013668</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>364.73255690823402</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>364.82272012195727</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>368.66981269005458</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>353.39997590377789</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>362.53013911750122</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>376.23030233122449</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>375.96739489932179</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>386.52755811304507</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>382.14465068114242</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>390.53481389486569</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>393.574977108589</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>397.6820696766863</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>398.74144482728769</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>414.25160804101097</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>420.94948867223019</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>446.06965188595302</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>440.03674445405102</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>447.01690766777403</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>453.41707088149701</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>449.54644603209897</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>447.83353860019599</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>449.74370181391896</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>481.53079438201701</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>470.68095759573998</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>487.31805016383703</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>485.58821337756103</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>507.058376591284</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>514.99546915938095</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>507.94563237310399</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>509.99579558682797</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>487.43288815492502</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>488.97305136864804</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>457.96014393674602</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>467.16030715046901</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>434.41968230107</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>424.13984551479359</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>416.2969380828909</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>404.73710129661418</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>385.8872645103375</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>380.5074277240609</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>366.70452029215812</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>368.25389544275947</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>366.78177607397868</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>354.78193928770202</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>359.8513144383034</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>336.81840700640072</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>334.21857022012398</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>340.95566278822128</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>340.95582600194462</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>349.1459892156679</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>326.10308178376516</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>335.43324499748849</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>339.22033756558579</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>337.29050077930913</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>330.18759334740633</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>332.7277565611297</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>336.94791977485301</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>333.28808298857626</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>339.37517555667358</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>340.55533877039693</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>333.43243133849415</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>331.63259455221748</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>334.80196970281884</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>328.80213291654212</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>325.77922548463943</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>333.03938869836276</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>330.81648126646002</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>331.01664448018334</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>340.28373704828061</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>332.19390026200392</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>332.75406347572721</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>331.47343862632863</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>337.54360184005191</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>334.26069440814922</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>330.9508576218725</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>336.40795018996982</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>334.67811340369315</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>332.23520597179038</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>330.59536918551368</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>325.45553239923703</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>340.1526249673343</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>342.07200011793572</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>334.762163331659</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>337.47925589975631</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>338.22941911347959</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>339.73958232720292</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>331.95667489530018</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>338.90683810902351</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>337.01700132274681</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>337.21637647334819</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>328.37346904144545</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>351.40363225516882</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>332.22072482326604</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>333.76088803698934</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>337.21105125071267</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>333.74814381880992</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>348.50751896941131</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>333.40768218313463</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>333.92477475123189</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>330.56493796495522</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>334.36510117867851</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>343.00219374677579</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>334.87235696049913</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>335.77252017422239</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>330.64189532482385</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>339.27898789292112</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>336.17915110664438</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>337.66624367474168</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>341.50640688846499</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>335.95349945656233</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>339.7136626702856</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>333.59382588400888</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>346.48091845210621</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>335.95029360270757</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>342.81045681643093</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>340.96062003015419</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>341.6777125982515</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>337.99787581197478</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>325.72803902569808</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>331.24513159379535</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>338.82529480751867</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>337.57238737561602</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>335.28255058933928</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>327.57271380306258</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>331.81980637115981</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>334.47996958488318</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>334.70013279860643</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>326.52643730358182</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>331.90660051730515</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>346.74676373102841</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>340.28692694475183</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>336.96401951284901</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>327.33418272657235</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>337.61127529466961</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>340.27143850839292</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>342.03160172211619</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>342.80869429021351</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>330.63578685831084</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>333.54595007203409</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>333.75532522263552</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>339.66548843635883</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>340.57258100445608</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>329.17274421817939</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>328.34983678627668</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>325</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>335.06016321372329</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>330.81725578182056</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>337.66741899554393</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>329.01679414614529</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>342.69467477736453</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>328.28483799108778</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>326.09500120481107</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>334.76209377290837</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>342.96146892350981</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>340.09163213723309</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>344.97179535095643</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>333.77888791905366</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>337.11905113277697</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>342.89921434650029</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>336.76630691459752</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>340.925682065199</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>347.1558452789223</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>335.8060084926455</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>335.7331010607428</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>343.59326427446609</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>338.67035684256342</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>343.79052005628671</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>329.58068327001007</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>331.9477758381073</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>338.52715098870868</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>343.47731420243201</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>342.39747741615531</c:v>
-                </c:pt>
-                <c:pt idx="200">
-                  <c:v>344.24456998425262</c:v>
-                </c:pt>
-                <c:pt idx="201">
-                  <c:v>342.85473319797592</c:v>
-                </c:pt>
-                <c:pt idx="202">
-                  <c:v>334.7918257660732</c:v>
-                </c:pt>
-                <c:pt idx="203">
-                  <c:v>339.33198897979651</c:v>
-                </c:pt>
-                <c:pt idx="204">
-                  <c:v>343.59136413039789</c:v>
-                </c:pt>
-                <c:pt idx="205">
-                  <c:v>337.46924476161712</c:v>
-                </c:pt>
-                <c:pt idx="206">
-                  <c:v>340.13861991221847</c:v>
-                </c:pt>
-                <c:pt idx="207">
-                  <c:v>329.5287831259418</c:v>
-                </c:pt>
-                <c:pt idx="208">
-                  <c:v>345.59894633966508</c:v>
-                </c:pt>
-                <c:pt idx="209">
-                  <c:v>336.8660389077624</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-0390-4D37-B9F5-AD3E7B681EBB}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>combined!$K$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>GUA</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -5327,6 +1064,4227 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
+              <c:f>combined!$D$2:$D$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="258"/>
+                <c:pt idx="0">
+                  <c:v>1321.4199979568095</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1320.9173720663573</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1312.5133461759051</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1314.7933814930966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1318.6548780179312</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1319.1104357504094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1313.2813546905311</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1313.0085736306528</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1319.8043537784179</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1315.7794951338267</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1308.8370364892353</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1308.5509778446437</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1316.1058192000526</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1310.7186829707482</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1303.9716467414437</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1301.7615717197828</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1308.8690966981219</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1310.8901216764611</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1300.1867078624437</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1302.1092328407826</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1302.9462802344087</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1305.7628664203914</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1304.312052606374</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1300</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1307.7392473936261</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1314.0614947872521</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1305.6647809732347</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1309.2703895745042</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1314.8124369681302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1324.0371843617563</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1334.7028317553822</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1336.7584403566518</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1350.3624713732083</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1365.3411799744779</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1372.4034273681038</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1377.3175747617302</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1390.5588833629995</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1404.763291964269</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1411.210055734965</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1403.9457479591649</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1399.8273953527907</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1402.10450395406</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1392.1304513476862</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1378.3290599489558</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1375.4695073425819</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1373.5581159438516</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1366.8157633374774</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1354.7023719387471</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1359.2734805400164</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1361.9050279336425</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1360.7942365349122</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1352.4709287591122</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1363.1713761527383</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1362.0789847540077</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1356.6105933552772</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1358.6710407489034</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1370.4685493501729</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1379.3450579514424</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1370.0355053450683</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1374.740713946338</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1391.625906170538</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1402.4621535641641</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1396.4192621654336</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1408.86900955906</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1422.045718160329</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1424.0221655539549</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1427.311174155225</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1439.0089827564939</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1456.4224301501199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1470.03853875139</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1479.9294473526591</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1508.8799947462851</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1550.6167033475549</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1592.5388119488239</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1614.6479593424501</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1663.2941679437199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1720.418515337346</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1745.5242239386159</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1738.7721713322421</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1739.7304799335111</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1742.6765885347809</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1720.2187971360499</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1673.785144529676</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1637.6819531309461</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1606.7013005245719</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1571.563409125841</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1535.5804177271109</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1522.236365120737</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1532.9939573449369</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1535.7021659462059</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1536.7586297169021</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1559.6582383181722</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1592.7341857117981</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1632.956494313067</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1657.424302914337</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1684.7064951385369</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1720.264342532163</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1736.843251133432</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1729.652698527058</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1730.5264071283279</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1749.740554521954</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1751.847263123223</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1734.939271724493</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1739.9556191181191</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1747.7434277193879</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1737.589536320658</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1705.605483714284</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1693.3781923155539</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1679.92623970918</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1650.9910483104491</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1605.0625405346491</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1575.123849135919</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1557.890896529545</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1535.699605130814</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1500.629413732084</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1496.816922333353</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1492.5882697269799</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1476.70016195118</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1465.1637257218749</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1458.638734323144</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1467.9957265473449</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1456.07317394097</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1447.48668254224</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1454.0205299358661</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1455.5697385371359</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1446.442547138405</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1444.467194532031</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1449.294803133301</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1451.772750526927</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1449.665259128197</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1440.250306521822</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1450.825315123092</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1455.8177237243619</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1459.4165323256311</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1454.6397797192569</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1464.4992883205271</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1473.0483357141529</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1473.0221443154219</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1469.741936539622</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1484.176945140892</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1488.4886925345181</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1478.607601135787</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1483.7645485294129</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1501.0758571306831</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1497.6957045243089</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1489.1400131255791</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1491.292521726848</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1500.6755139510481</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1501.2391225523179</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1497.676869945944</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1493.3999785472131</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1503.5306259408389</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1499.118734542109</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1491.2464819357351</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1489.8775905370039</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1498.301799138274</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1486.4649465319001</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1481.1572387561</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1486.0481473573691</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1485.5794947509951</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1467.4782033522649</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1460.647611953535</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1463.3734593471611</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1453.6747679484299</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1440.2034765497001</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1434.4092687739001</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1437.8045161675259</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1427.5961247687951</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1413.4708721624211</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1415.1460807636911</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1416.5416893649599</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1407.4317367585859</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1408.548228982786</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1412.364937584056</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1413.839784977682</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1404.865293578951</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1406.802202180221</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1416.6798495738469</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1424.160958175117</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1412.905266776386</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1414.0798590005861</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1423.1843063942119</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1419.8198149954819</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1412.3268623891081</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1425.3464709903769</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1428.2518183840029</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1422.3265269852729</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1420.909735586542</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1430.9338829801679</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1431.6642752043681</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1422.9345838056379</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1424.1389924069081</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1433.8263398005329</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1437.176648401803</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1426.726357003073</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1423.861604396699</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1438.6564129979679</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1434.2457603915941</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1425.0614689928641</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1427.770977594133</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1440.7735249877589</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1442.697533589029</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1430.656942190298</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1433.9277732068549</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1444.1589818081241</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1444.203290409394</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1437.826999010663</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1441.7650464042899</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1448.568855005559</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1447.4595023991851</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1437.383311000455</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>1443.2425196017241</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>1439.31766699535</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>1439.258614388976</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>1429.8120229902461</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>1430.349415214446</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>1427.171923815715</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>1412.8782712093409</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>1406.3963798106111</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>1405.1756272042371</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>1401.514635805506</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>1381.018044406776</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>1372.022191800402</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>1376.5283004016715</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>1365.6063926258714</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>1348.4447563965673</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>1337.5439649978366</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>1343.6082735991063</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1338.4845209927321</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>1324.9128132169321</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>1324.2135218182018</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>1327.0343304194712</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>1322.6511778130973</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>1312.6379864143669</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>1314.7851950156364</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>1322.2289424092623</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>1317.7527346334623</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>1313.9171432347318</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>1318.9847518360016</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>1320.1597992296277</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>1316.7248078308971</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>1315.7382552245231</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>1322.6430638257925</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>1318.6613724270621</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>1311.8852198206882</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>1314.6329120448881</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>1320.1869206461579</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>1323.2755292474274</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>1317.9018766410534</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>1314.2432852423228</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>1320.4783326359488</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>1317.6971412372186</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>1315.1667334614185</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>1318.7081972321139</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>1320.2750894563139</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>1317.4577980575834</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>1315.4071066588531</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>1321.3238540524792</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0390-4D37-B9F5-AD3E7B681EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CO/10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>combined!$A$50:$A$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>252.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>283.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>291.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>293.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>299.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>307.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>309.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>312.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>317.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>328.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>336.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>338.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>341.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>349.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>354.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>356.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>359.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>362.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>365.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>367.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>370.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>375.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>380.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>383.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>388.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>393.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>396.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>401.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>404.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>409.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>412.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>414.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>417.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>419.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>425.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>427.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>430.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>432.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>435.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>438.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>440.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>443.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>445.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>448.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>451.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>453.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>456.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>459.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>461.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>464.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>467.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>469.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>472.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>474.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>477.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>480.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>482.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>485.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>487.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>490.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>493.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>495.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>498.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>503.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>506.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>508.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>511.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>513.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>516.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>521.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>524.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>527.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>529.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>532.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>537.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>539.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>542.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>545.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>547.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>550.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>553.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>555.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>560.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>563.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>568.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>571.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>573.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>576.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>578.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>581.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>584.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>586.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>589.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>594.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>596.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>599.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>602.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>604.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>607.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>610.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>612.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>615.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>618.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>620.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>625.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>628.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>630.9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>633.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>636.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>638.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>641.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>644.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>646.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>649.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>654.6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>659.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>662.2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>664.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>667.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>670.1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>672.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>675.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>680.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>683.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>688.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>690.9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>693.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>696.2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>698.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>701.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>704.1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>706.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>709.4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>711.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>714.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>717.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>719.9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>722.6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>724.9</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>727.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>730.1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>732.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>735.4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>740.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>745.6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>748.2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>750.9</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>753.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>756.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>758.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>761.4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>764.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>766.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>771.6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>774.3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>776.9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>779.6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>782.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>784.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>789.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>792.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>797.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>combined!$G$50:$G$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>970.25668135166529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>973.29206790697799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>979.39423273801992</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>985.41783239624908</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>976.35371895156197</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>974.23058378260373</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>980.94274861364545</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>981.90213516895813</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>970</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>976.60146483104177</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>985.87135138635415</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>982.68471621739604</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>981.99761587562557</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>987.50140243093813</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>994.22886726197987</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>991.21825381729275</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>989.34351864833422</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>993.29980520364677</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1002.3121700346888</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>988.62573486573046</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>983.70462142104316</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>990.57858625208496</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>993.71825108312669</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>996.04423763843954</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>994.97320246948118</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>993.3417673005232</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1000.3496538558358</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>999.38941868687755</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>997.27420524219019</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>994.20097007323193</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>998.81315662854468</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1001.9986214595865</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>990.64548629062824</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>994.55435112167004</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1005.2405376769826</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1010.7351025080242</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>995.00088906333713</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>996.2567538943789</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1004.4133187254207</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1004.7014052807333</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1005.6751049389628</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1005.5936697700045</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1013.4366214981295</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1016.0246863291712</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>996.35487288448405</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>997.79033771552577</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1001.7362025465677</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1002.697102204797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>999.50698876010938</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1007.0304535911513</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1020.923740146464</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1032.7241049775059</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1041.6615915328182</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1051.4433563638602</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1091.281721194902</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1120.575907750215</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1134.2077725812569</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1174.9810374122981</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1234.7777239676111</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1298.221888798653</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1333.6817753539649</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1389.383440185007</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1442.3409398432359</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1474.8292046742781</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1508.186291229591</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1545.664656060633</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1574.159920891675</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1597.140385722716</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1625.9276722780289</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1656.4829719362581</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1684.2572236643841</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1680.110288495425</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1694.4801881536541</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1723.8367747089669</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1737.7743395400089</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1737.9682260953221</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1748.269590926363</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1784.225855757405</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1790.7192423127181</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1788.136407143759</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1785.6709936990719</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1801.711358530114</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1812.2447450854261</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1804.9570099164689</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1815.40347474751</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1830.2364395785521</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1827.429626133865</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1798.3931909649059</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1785.7372775202189</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1770.023142351261</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1732.5493420094899</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1694.467406840532</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1649.7602933958451</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1617.227658226886</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1556.229244782199</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1495.7096096132409</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1431.3780961685529</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1391.4888609995951</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1332.9370258306371</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1274.090125488867</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1240.072390319908</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1208.6569768752211</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1162.416141706263</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1131.680828261575</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1122.4890930926169</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1103.9272796479299</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1081.8678444789721</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1070.0765093100131</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1073.8850958653261</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1065.8769955235555</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1049.0942603545971</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1042.3429469099099</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1050.6829117409516</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1041.4770765719934</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1028.5396631273061</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1027.5552279583478</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1031.7647927893895</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1032.3753924476187</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1020.8174790029315</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1027.4621438339732</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1019.9301303892858</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1020.5071952203277</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1023.5601600513696</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1032.1626466066821</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1035.9524462649113</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1021.8150110959534</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1027.9695976512658</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1036.5604624823077</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1040.7724273133495</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1034.971313868662</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1039.0916786997041</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1038.1148435307455</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1036.685143188975</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1032.5321297442874</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1041.7788945753296</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1040.617681130642</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1036.3828459616836</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1034.0294325169964</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1047.6651973480384</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1038.4504621790802</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1034.6973487343928</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1033.4179483926221</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1047.1021132236638</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1053.2245780547057</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1041.3137646100183</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1047.1637294410598</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1044.7221942721021</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1044.5454808274146</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1039.4242456584566</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1042.2635322137689</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1052.1878970448108</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1047.6257618758527</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1040.0160484311652</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1041.7012132622071</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1057.2193780932487</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1065.2211994757488</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>1059.2530643067907</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>1067.2388291378325</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>1069.4741939688745</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>1063.5443805241869</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>1074.1603453552291</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1081.1071319105411</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>1082.104496741583</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>1076.976861572625</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>1074.604348127938</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>1083.1394346832501</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1084.706099514292</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>1066.8985991725212</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>1074.4144640035629</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>1086.755150558876</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>1086.667315389918</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>1078.14950194523</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>1084.305166776272</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>1085.8781316073141</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>1083.1580181626271</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>1081.642382993668</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>1073.668782651898</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>1089.6770343800231</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>1089.273299211065</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>1083.961064042106</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>1081.5096505974191</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>1098.5706502556479</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>1098.48541508669</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>1086.4890799177319</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>1091.594166473044</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>1096.7919313040861</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>1100.190196135128</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>1096.7936826904411</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>1106.96308234867</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>1117.613347179712</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>1109.426412010753</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>1118.0607985660661</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>1123.7999633971081</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>1132.0012499524209</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>1126.4151147834621</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>1124.7671796145039</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>1138.6603661698171</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>1148.5304658280461</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>1136.730230659088</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>1148.7025954901301</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>1162.1971820454419</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>1156.6989468764841</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>1151.6518334317971</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>1165.5918982628391</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>1168.3524979210679</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>1162.1726496491931</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>1164.432649307422</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>1186.916414138464</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>1189.011578969506</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1182.4119655248189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0390-4D37-B9F5-AD3E7B681EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Benzene (x10)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>combined!$A$50:$A$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>252.3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>257.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>265.2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>267.8</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>270.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>275.7</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>283.3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>288.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>291.3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>293.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>299.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>301.8</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>307.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>309.7</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>312.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>317.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>322.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>325.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>328.2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>336.1</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>338.7</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>341.4</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>349.3</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>351.9</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>354.6</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>356.9</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>359.5</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>362.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>365.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>367.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>370.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>375.3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>380.6</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>383.3</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>388.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>393.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>396.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>399.1</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>401.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>404.4</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>409.7</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>412.3</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>414.6</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>417.2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>419.9</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>425.1</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>427.7</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>430.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>432.7</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>435.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>438.3</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>440.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>443.3</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>445.9</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>448.6</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>451.2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>453.8</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>456.5</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>459.1</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>461.8</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>464.4</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>467.1</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>469.7</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>472.3</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>474.9</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>477.6</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>480.2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>482.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>485.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>487.8</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>490.4</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>493.1</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>495.7</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>498.4</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>503.7</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>506.3</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>508.9</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>511.2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>513.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>516.5</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>521.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>524.4</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>527.1</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>529.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>532.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>537.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>539.9</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>542.6</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>545.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>547.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>550.5</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>553.1</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>555.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>560.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>563.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>568.6</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>571.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>573.9</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>576.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>578.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>581.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>584.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>586.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>589.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>594.6</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>596.9</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>599.6</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>602.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>604.9</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>607.5</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>610.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>612.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>615.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>618.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>620.4</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>625.6</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>628.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>630.9</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>633.5</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>636.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>638.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>641.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>644.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>646.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>649.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>654.6</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>659.6</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>662.2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>664.8</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>667.5</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>670.1</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>672.8</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>675.4</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>680.7</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>683.4</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>688.3</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>690.9</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>693.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>696.2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>698.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>701.5</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>704.1</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>706.8</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>709.4</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>711.7</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>714.7</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>717.3</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>719.9</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>722.6</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>724.9</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>727.5</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>730.1</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>732.8</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>735.4</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>740.7</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>745.6</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>748.2</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>750.9</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>753.5</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>756.2</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>758.8</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>761.4</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>764.1</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>766.4</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>771.6</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>774.3</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>776.9</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>779.6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>782.2</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>784.5</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>789.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>792.4</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>797.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>combined!$J$50:$J$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="210"/>
+                <c:pt idx="0">
+                  <c:v>368.5533401521115</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>370.97043272020881</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>368.47059593393209</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>364.86997108453352</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>365.9370636526308</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>363.46722686635411</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>372.42739008007737</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>356.44448264817458</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>358.96464586189802</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>362.48480907562129</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>355.3319016437186</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>364.71206485744187</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>358.25144000804323</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>359.59853257614049</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>360.89869578986378</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>358.19578835796108</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>363.48595157168438</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>357.46304413978169</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>355.15320735350502</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>358.93337056722828</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>353.00046313532562</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>367.70062634904889</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>352.31078956277219</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>351.24788213086947</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>352.4480453445928</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>353.83820855831613</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>358.85530112641339</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>353.97546434013668</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>364.73255690823402</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>364.82272012195727</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>368.66981269005458</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>353.39997590377789</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>362.53013911750122</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>376.23030233122449</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>375.96739489932179</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>386.52755811304507</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>382.14465068114242</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>390.53481389486569</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>393.574977108589</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>397.6820696766863</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>398.74144482728769</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>414.25160804101097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>420.94948867223019</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>446.06965188595302</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>440.03674445405102</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>447.01690766777403</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>453.41707088149701</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>449.54644603209897</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>447.83353860019599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>449.74370181391896</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>481.53079438201701</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>470.68095759573998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>487.31805016383703</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>485.58821337756103</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>507.058376591284</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>514.99546915938095</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>507.94563237310399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>509.99579558682797</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>487.43288815492502</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>488.97305136864804</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>457.96014393674602</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>467.16030715046901</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>434.41968230107</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>424.13984551479359</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>416.2969380828909</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>404.73710129661418</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>385.8872645103375</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>380.5074277240609</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>366.70452029215812</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>368.25389544275947</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>366.78177607397868</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>354.78193928770202</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>359.8513144383034</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>336.81840700640072</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>334.21857022012398</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>340.95566278822128</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>340.95582600194462</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>349.1459892156679</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>326.10308178376516</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>335.43324499748849</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>339.22033756558579</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>337.29050077930913</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>330.18759334740633</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>332.7277565611297</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>336.94791977485301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>333.28808298857626</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>339.37517555667358</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>340.55533877039693</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>333.43243133849415</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>331.63259455221748</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>334.80196970281884</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>328.80213291654212</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>325.77922548463943</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>333.03938869836276</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>330.81648126646002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>331.01664448018334</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>340.28373704828061</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>332.19390026200392</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>332.75406347572721</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>331.47343862632863</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>337.54360184005191</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>334.26069440814922</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>330.9508576218725</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>336.40795018996982</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>334.67811340369315</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>332.23520597179038</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>330.59536918551368</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>325.45553239923703</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>340.1526249673343</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>342.07200011793572</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>334.762163331659</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>337.47925589975631</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>338.22941911347959</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>339.73958232720292</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>331.95667489530018</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>338.90683810902351</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>337.01700132274681</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>337.21637647334819</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>328.37346904144545</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>351.40363225516882</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>332.22072482326604</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>333.76088803698934</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>337.21105125071267</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>333.74814381880992</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>348.50751896941131</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>333.40768218313463</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>333.92477475123189</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>330.56493796495522</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>334.36510117867851</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>343.00219374677579</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>334.87235696049913</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>335.77252017422239</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>330.64189532482385</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>339.27898789292112</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>336.17915110664438</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>337.66624367474168</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>341.50640688846499</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>335.95349945656233</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>339.7136626702856</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>333.59382588400888</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>346.48091845210621</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>335.95029360270757</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>342.81045681643093</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>340.96062003015419</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>341.6777125982515</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>337.99787581197478</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>325.72803902569808</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>331.24513159379535</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>338.82529480751867</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>337.57238737561602</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>335.28255058933928</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>327.57271380306258</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>331.81980637115981</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>334.47996958488318</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>334.70013279860643</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>326.52643730358182</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>331.90660051730515</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>346.74676373102841</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>340.28692694475183</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>336.96401951284901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>327.33418272657235</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>337.61127529466961</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>340.27143850839292</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>342.03160172211619</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>342.80869429021351</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>330.63578685831084</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>333.54595007203409</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>333.75532522263552</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>339.66548843635883</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>340.57258100445608</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>329.17274421817939</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>328.34983678627668</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>325</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>335.06016321372329</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>330.81725578182056</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>337.66741899554393</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>329.01679414614529</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>342.69467477736453</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>328.28483799108778</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>326.09500120481107</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>334.76209377290837</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>342.96146892350981</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>340.09163213723309</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>344.97179535095643</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>333.77888791905366</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>337.11905113277697</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>342.89921434650029</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>336.76630691459752</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>340.925682065199</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>347.1558452789223</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>335.8060084926455</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>335.7331010607428</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>343.59326427446609</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>338.67035684256342</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>343.79052005628671</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>329.58068327001007</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>331.9477758381073</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>338.52715098870868</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>343.47731420243201</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>342.39747741615531</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>344.24456998425262</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>342.85473319797592</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>334.7918257660732</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>339.33198897979651</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>343.59136413039789</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>337.46924476161712</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>340.13861991221847</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>329.5287831259418</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>345.59894633966508</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>336.8660389077624</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-0390-4D37-B9F5-AD3E7B681EBB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>combined!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GUA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>combined!$A$2:$A$259</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="258"/>
+                <c:pt idx="0">
+                  <c:v>113.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>117.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>124.7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>128.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>131.80000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>135.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>138.6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>141.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>145.1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>148.30000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>151.5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>154.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>157.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>160.69999999999999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>163.6</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>166.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>169.4</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>172.2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>175.1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>177.8</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>180.6</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>183.4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>186.1</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>188.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>191.5</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>194.3</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>196.9</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>199.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>202.3</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>207.6</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>210</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>212.6</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>215.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>220.6</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>223.2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>226.2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>228.5</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>231.2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>233.8</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>236.5</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>239.1</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>241.8</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>244.4</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>247.1</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>249.7</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>252.3</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>255</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>257.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>259.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>262.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>265.2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>267.8</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>270.5</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>273.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>275.7</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>278.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>281</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>283.3</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>286</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>288.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>291.3</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>293.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>296.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>299.2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>301.8</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>304.5</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>307.10000000000002</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>309.7</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>312.39999999999998</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>315</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>317.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>320.3</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>322.89999999999998</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>325.60000000000002</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>328.2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>330.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>333.5</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>336.1</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>338.7</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>341.4</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>344</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>346.7</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>349.3</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>351.9</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>354.6</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>356.9</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>359.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>362.5</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>365.1</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>367.8</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>370.4</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>373</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>375.3</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>378</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>380.6</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>383.3</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>385.9</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>388.6</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>391.2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>393.8</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>396.5</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>399.1</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>401.7</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>404.4</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>407</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>409.7</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>412.3</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>414.6</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>417.2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>419.9</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>422.5</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>425.1</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>427.7</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>430.4</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>432.7</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>435.7</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>438.3</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>440.6</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>443.3</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>445.9</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>448.6</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>451.2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>453.8</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>456.5</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>459.1</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>461.8</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>464.4</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>467.1</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>469.7</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>472.3</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>474.9</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>477.6</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>480.2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>482.9</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>485.5</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>487.8</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>490.4</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>493.1</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>495.7</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>498.4</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>501</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>503.7</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>506.3</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>508.9</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>511.2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>513.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>516.5</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>519.1</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>521.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>524.4</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>527.1</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>529.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>532.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>535</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>537.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>539.9</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>542.6</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>545.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>547.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>550.5</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>553.1</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>555.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>558</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>560.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>563.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>566</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>568.6</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>571.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>573.9</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>576.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>578.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>581.5</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>584.1</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>586.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>589.4</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>592</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>594.6</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>596.9</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>599.6</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>602.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>604.9</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>607.5</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>610.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>612.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>615.4</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>618.1</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>620.4</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>623</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>625.6</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>628.29999999999995</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>630.9</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>633.5</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>636.20000000000005</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>638.79999999999995</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>641.5</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>644.1</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>646.70000000000005</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>649.4</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>654.6</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>657</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>659.6</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>662.2</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>664.8</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>667.5</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>670.1</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>672.8</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>675.4</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>678</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>680.7</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>683.4</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>686</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>688.3</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>690.9</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>693.6</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>696.2</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>698.9</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>701.5</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>704.1</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>706.8</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>709.4</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>711.7</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>714.7</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>717.3</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>719.9</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>722.6</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>724.9</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>727.5</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>730.1</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>732.8</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>735.4</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>738</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>740.7</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>743</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>745.6</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>748.2</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>750.9</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>753.5</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>756.2</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>758.8</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>761.4</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>764.1</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>766.4</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>769</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>771.6</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>774.3</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>776.9</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>779.6</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>782.2</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>784.5</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>787.5</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>789.8</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>792.4</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>795</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>797.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
               <c:f>combined!$K$2:$K$259</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
@@ -6109,7 +6067,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-0390-4D37-B9F5-AD3E7B681EBB}"/>
             </c:ext>
@@ -6132,7 +6090,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6868,7 +6826,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-0390-4D37-B9F5-AD3E7B681EBB}"/>
             </c:ext>
@@ -6891,7 +6849,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -7627,7 +7585,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-0390-4D37-B9F5-AD3E7B681EBB}"/>
             </c:ext>
@@ -7650,9 +7608,7 @@
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -8934,7 +8890,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-0390-4D37-B9F5-AD3E7B681EBB}"/>
             </c:ext>
@@ -8980,29 +8936,35 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>Temperature [K</a:t>
+                  <a:t>Temperature (K</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:sysClr val="windowText" lastClr="000000">
                         <a:lumMod val="65000"/>
                         <a:lumOff val="35000"/>
                       </a:sysClr>
                     </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>]</a:t>
+                  <a:t>)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9040,7 +9002,7 @@
           <a:solidFill>
             <a:schemeClr val="bg1"/>
           </a:solidFill>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -9053,13 +9015,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -9098,19 +9060,65 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400">
+                  <a:rPr lang="en-US" sz="1600">
                     <a:solidFill>
                       <a:schemeClr val="tx1"/>
                     </a:solidFill>
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>QMS signal [a.u.]</a:t>
+                  <a:t>QMS signal</a:t>
                 </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> (</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>a.u.) x</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t> 10</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600" baseline="30000">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:rPr>
+                  <a:t>3</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1600">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:endParaRPr>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -9143,10 +9151,10 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="none"/>
+        <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1"/>
             </a:solidFill>
@@ -9159,13 +9167,13 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1"/>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                 <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="en-US"/>
@@ -9174,11 +9182,16 @@
         <c:crossAx val="1063436240"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:dispUnits>
+          <c:builtInUnit val="thousands"/>
+        </c:dispUnits>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
-        <a:ln>
-          <a:noFill/>
+        <a:ln w="19050">
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -9192,12 +9205,7 @@
       <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
+      <a:noFill/>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -9222,7 +9230,7 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -9261,7 +9269,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10894,7 +10901,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -12497,7 +12504,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -14100,7 +14107,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -15711,7 +15718,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -16798,7 +16805,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000004-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -17885,7 +17892,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000005-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -19472,7 +19479,7 @@
             </c:numRef>
           </c:yVal>
           <c:smooth val="1"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000006-DF7F-4C38-ADE8-81426D5599E3}"/>
             </c:ext>
@@ -19524,7 +19531,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19629,7 +19635,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -19710,7 +19715,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -20893,28 +20897,28 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>218902</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>159327</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>443344</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>175951</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>443344</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>159326</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
+          <a:graphicFrameLocks noChangeAspect="1"/>
         </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -20931,23 +20935,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>68580</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>137160</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>384463</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>4156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>529243</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>58189</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -20974,19 +20978,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77184</cdr:x>
-      <cdr:y>0.75574</cdr:y>
+      <cdr:x>0.13394</cdr:x>
+      <cdr:y>0.51587</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93045</cdr:x>
-      <cdr:y>0.81762</cdr:y>
+      <cdr:x>0.29255</cdr:x>
+      <cdr:y>0.57775</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="2" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EF3D7633-E063-4219-8445-4E57CF2CB678}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF3D7633-E063-4219-8445-4E57CF2CB678}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -20994,8 +20998,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5228602" y="2885144"/>
-          <a:ext cx="1074453" cy="236234"/>
+          <a:off x="979787" y="2358536"/>
+          <a:ext cx="1160264" cy="282916"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21115,10 +21119,12 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
                 <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>GUA</a:t>
           </a:r>
@@ -21128,19 +21134,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77018</cdr:x>
-      <cdr:y>0.69397</cdr:y>
+      <cdr:x>0.77379</cdr:x>
+      <cdr:y>0.73765</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92851</cdr:x>
-      <cdr:y>0.75579</cdr:y>
+      <cdr:x>0.93212</cdr:x>
+      <cdr:y>0.79947</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="3" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{9283C974-8DAD-48B2-A789-55004BBBCA15}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9283C974-8DAD-48B2-A789-55004BBBCA15}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21148,8 +21154,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5217338" y="2649298"/>
-          <a:ext cx="1072556" cy="236006"/>
+          <a:off x="5660420" y="3372533"/>
+          <a:ext cx="1158215" cy="282642"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21269,12 +21275,14 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>phenol x40</a:t>
+            <a:t>Phenol x40</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -21282,19 +21290,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77018</cdr:x>
-      <cdr:y>0.61805</cdr:y>
+      <cdr:x>0.77586</cdr:x>
+      <cdr:y>0.67468</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92851</cdr:x>
-      <cdr:y>0.67988</cdr:y>
+      <cdr:x>0.93419</cdr:x>
+      <cdr:y>0.73651</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="4" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{22A753E6-FA1D-4984-89F0-74DDF1C56F9D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{22A753E6-FA1D-4984-89F0-74DDF1C56F9D}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21302,8 +21310,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5217338" y="2359472"/>
-          <a:ext cx="1072556" cy="236043"/>
+          <a:off x="5675585" y="3084624"/>
+          <a:ext cx="1158215" cy="282686"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21423,15 +21431,14 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="50000"/>
-                  <a:lumOff val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>benzene x10</a:t>
+            <a:t>Benzene x10</a:t>
           </a:r>
         </a:p>
       </cdr:txBody>
@@ -21439,19 +21446,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76736</cdr:x>
-      <cdr:y>0.17112</cdr:y>
+      <cdr:x>0.7786</cdr:x>
+      <cdr:y>0.22957</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.86425</cdr:x>
-      <cdr:y>0.23925</cdr:y>
+      <cdr:x>0.87549</cdr:x>
+      <cdr:y>0.2977</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="5" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{8ACE7CEB-AE40-4B1D-A822-EC618F54FF19}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8ACE7CEB-AE40-4B1D-A822-EC618F54FF19}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21459,8 +21466,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5198237" y="653254"/>
-          <a:ext cx="656350" cy="260094"/>
+          <a:off x="6910244" y="1273401"/>
+          <a:ext cx="859920" cy="377918"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21580,26 +21587,32 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>H</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="-25000">
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> x0.1</a:t>
           </a:r>
@@ -21616,19 +21629,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76793</cdr:x>
-      <cdr:y>0.32087</cdr:y>
+      <cdr:x>0.77261</cdr:x>
+      <cdr:y>0.37504</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92627</cdr:x>
-      <cdr:y>0.3827</cdr:y>
+      <cdr:x>0.93095</cdr:x>
+      <cdr:y>0.43687</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="6" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{561E97AE-58B6-4E38-A1EB-B705DA1119E2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{561E97AE-58B6-4E38-A1EB-B705DA1119E2}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21636,8 +21649,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5202063" y="1224966"/>
-          <a:ext cx="1072624" cy="236043"/>
+          <a:off x="5651820" y="1714681"/>
+          <a:ext cx="1158289" cy="282687"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21757,10 +21770,12 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>CO x0.1</a:t>
           </a:r>
@@ -21770,19 +21785,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.76961</cdr:x>
-      <cdr:y>0.39305</cdr:y>
+      <cdr:x>0.77222</cdr:x>
+      <cdr:y>0.43277</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.92795</cdr:x>
-      <cdr:y>0.45488</cdr:y>
+      <cdr:x>0.93056</cdr:x>
+      <cdr:y>0.4946</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="7" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7B03F860-E8DD-4A21-8761-6E42F1404145}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B03F860-E8DD-4A21-8761-6E42F1404145}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21790,8 +21805,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5213477" y="1500498"/>
-          <a:ext cx="1072623" cy="236044"/>
+          <a:off x="5648944" y="1978641"/>
+          <a:ext cx="1158289" cy="282686"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -21911,32 +21926,32 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>CH</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="-25000">
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>4</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0">
+            <a:rPr lang="en-US" sz="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="accent5">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t> x0.25</a:t>
           </a:r>
@@ -21955,19 +21970,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.77242</cdr:x>
-      <cdr:y>0.55532</cdr:y>
+      <cdr:x>0.77489</cdr:x>
+      <cdr:y>0.60327</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.93076</cdr:x>
-      <cdr:y>0.61714</cdr:y>
+      <cdr:x>0.93323</cdr:x>
+      <cdr:y>0.66509</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="8" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72567A48-C5DD-4679-A7AF-E8A2B6F50FEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72567A48-C5DD-4679-A7AF-E8A2B6F50FEE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -21975,8 +21990,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5232543" y="2119985"/>
-          <a:ext cx="1072624" cy="236005"/>
+          <a:off x="5668493" y="2758173"/>
+          <a:ext cx="1158289" cy="282641"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22096,32 +22111,32 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>CH</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="-25000">
+            <a:rPr lang="en-US" sz="1200" baseline="-25000">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>2</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-US" sz="1100">
+            <a:rPr lang="en-US" sz="1200">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>O x2</a:t>
           </a:r>
@@ -22131,19 +22146,19 @@
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.05417</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.10039</cdr:x>
+      <cdr:y>0.06144</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.21251</cdr:x>
-      <cdr:y>0.06183</cdr:y>
+      <cdr:x>0.25873</cdr:x>
+      <cdr:y>0.12327</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
         <cdr:cNvPr id="9" name="TextBox 8">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{72567A48-C5DD-4679-A7AF-E8A2B6F50FEE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72567A48-C5DD-4679-A7AF-E8A2B6F50FEE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -22151,8 +22166,8 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="366969" y="0"/>
-          <a:ext cx="1072623" cy="236044"/>
+          <a:off x="734361" y="280914"/>
+          <a:ext cx="1158289" cy="282687"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
@@ -22272,13 +22287,83 @@
         </a:lstStyle>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-US" sz="1800" b="1">
+            <a:rPr lang="en-US" sz="1600" b="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
             </a:rPr>
             <a:t>TPD</a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.76212</cdr:x>
+      <cdr:y>0.06152</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.88712</cdr:x>
+      <cdr:y>0.13424</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D654D679-C0EB-44E4-9256-29FE1C1300AF}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5575070" y="281249"/>
+          <a:ext cx="914400" cy="332509"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>GUA/Pt(100)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600">
+            <a:effectLst/>
+            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -30103,14 +30188,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AP259"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="G50" sqref="G50:G259"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="8.5546875" customWidth="1"/>
     <col min="4" max="5" width="12" bestFit="1" customWidth="1"/>
@@ -51624,39 +51709,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G151"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
@@ -55140,13 +55213,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView topLeftCell="A243" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
@@ -59543,13 +59616,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:G169"/>
   <sheetViews>
     <sheetView topLeftCell="A154" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>
@@ -63447,13 +63520,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:E259"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1025" width="8.5546875" customWidth="1"/>
   </cols>

--- a/GUA work/Pt(100)/IR chamber/GUA 0.025 L.xlsx
+++ b/GUA work/Pt(100)/IR chamber/GUA 0.025 L.xlsx
@@ -9067,7 +9067,7 @@
                     <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                     <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
                   </a:rPr>
-                  <a:t>QMS signal</a:t>
+                  <a:t>QMS Intensity</a:t>
                 </a:r>
                 <a:r>
                   <a:rPr lang="en-US" sz="1600" baseline="0">
@@ -22300,74 +22300,6 @@
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.76212</cdr:x>
-      <cdr:y>0.06152</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.88712</cdr:x>
-      <cdr:y>0.13424</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="10" name="TextBox 9">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D654D679-C0EB-44E4-9256-29FE1C1300AF}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="5575070" y="281249"/>
-          <a:ext cx="914400" cy="332509"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="en-US" sz="1600" b="0" i="0" baseline="0">
-              <a:effectLst/>
-              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            </a:rPr>
-            <a:t>GUA/Pt(100)</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1600">
-            <a:effectLst/>
-            <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-            <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
-          </a:endParaRPr>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
 </c:userShapes>
 </file>
 
@@ -51713,7 +51645,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.05" x14ac:dyDescent="0.3"/>
